--- a/NVIDIA_CUDA-5.0_Samples/8_diy/matrixInv/性能测试.xlsx
+++ b/NVIDIA_CUDA-5.0_Samples/8_diy/matrixInv/性能测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>数据大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,14 @@
   </si>
   <si>
     <t>s --&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPG/CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L16"/>
+  <dimension ref="B3:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -696,6 +704,23 @@
       </c>
       <c r="I16" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <f>I18/I12</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/NVIDIA_CUDA-5.0_Samples/8_diy/matrixInv/性能测试.xlsx
+++ b/NVIDIA_CUDA-5.0_Samples/8_diy/matrixInv/性能测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>数据大小</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,22 @@
   </si>
   <si>
     <t>GPG/CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1536*1536</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRI-INV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU-TRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:L19"/>
+  <dimension ref="B3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -706,7 +722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="2:9">
       <c r="H18" t="s">
         <v>17</v>
       </c>
@@ -714,13 +730,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="2:9">
       <c r="H19" t="s">
         <v>18</v>
       </c>
       <c r="I19">
         <f>I18/I12</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
